--- a/Developement/PLL.xlsx
+++ b/Developement/PLL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Transceiver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progetti\Transceiver_Lab\Developement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -276,7 +277,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,7 +293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
